--- a/csv2excel/output/data.xlsx
+++ b/csv2excel/output/data.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
-    <t>2015/9/26</t>
-  </si>
-  <si>
-    <t>2015/9/27</t>
+    <t>2014/10/1</t>
+  </si>
+  <si>
+    <t>2015/5/10</t>
   </si>
   <si>
     <t>A</t>
@@ -367,9 +367,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -379,11 +379,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" min="1" width="9.10"/>
-    <col max="2" min="2" width="9.10"/>
-    <col max="3" min="3" width="9.10"/>
-    <col max="4" min="4" width="9.10"/>
-    <col max="5" min="5" width="9.10"/>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
+    <col min="3" max="3" width="9.10"/>
+    <col min="4" max="4" width="9.10"/>
+    <col min="5" max="5" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -411,10 +411,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>165</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,10 +425,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
